--- a/Data 80,20/data latih.xlsx
+++ b/Data 80,20/data latih.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skripsi\KNN\Data 80,20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\analys-sentimen-knn\Data 80,20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC73BB-0805-481F-88B9-3855DF698F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529430D-E2D5-4AE8-84B3-6BF88D2477ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE784BA3-685D-4D25-A9D8-B89D882A5E92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE784BA3-685D-4D25-A9D8-B89D882A5E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="442">
   <si>
     <t>tweet</t>
   </si>
@@ -1357,336 +1357,6 @@
   </si>
   <si>
     <t>Kebijakan pemerintah untuk mengerek tarif PPN menjadi 12 persen pada 1 Januari 2025 bakal berdampak Negative terhadap pertumbuhan ekonomi nasional dalam jangka pendek. ~N #Dampak #PPN12Persen #PDB https://t.co/tGtItwewIu</t>
-  </si>
-  <si>
-    <t>maaf ya seharus nya akun ini untuk hype day6 tapi sumpah demi apapun masalah ppn ini meresahkan banget apa lagi buat aku yang gaji nya di bawah UMR ini #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax14105</t>
-  </si>
-  <si>
-    <t>Ayo kita semarakkan hymne oke gas oke gas buat kaum 58% yg tiba tiba bingung disaat ppn naik 12% hahaha. PESAN ini didasarkan mengeluh nya 2 temen saya yg kemarin joget Hepi tiba tiba tepat tadi malam curhat kesal kenapa ppn naik #PPN12Persen #kaum58 #TolakKenaikanPPN</t>
-  </si>
-  <si>
-    <t>Mikir Bahlul #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax</t>
-  </si>
-  <si>
-    <t>Makanya gaji lu cuma bisa segitu karena lu nya tolol udah gaji kecil otak juga jangan kecil. #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax</t>
-  </si>
-  <si>
-    <t>Padahal klw memang niat tinggal sahkan RUU Penyitaan Aset Koruptor buat nambal APBN gak perlu naikin PPN udah cukup masa iya mereka yang ngerugiin negara gak ngotak hukumanya tumpul emang ampas hukum di sini kaya tombak yang nancap #PPNMemperkuatOligarki #PPN12Persen</t>
-  </si>
-  <si>
-    <t>@barengwarga GAJI MINIM TAPI DEMEN MALAK CIH #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki</t>
-  </si>
-  <si>
-    <t>TOLAK PPN 12% #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki</t>
-  </si>
-  <si>
-    <t>Di masukin penjara cuma menuh2 in mending dijadiin tumbal proyek ajaa gak makan tempat ngubur soalnya dan menyatu sama bangunan #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax</t>
-  </si>
-  <si>
-    <t>@barengwarga Tambahan lagi: yang masuk Indo (mau bule/warga sendiri) ditipu Sri-Mulyono #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakMulyaniTax #PPNMemperkuatOligarki #PPNMemperkuatDinasti #PPNMemperkuatRezim https://t.co/</t>
-  </si>
-  <si>
-    <t>@Underpressure86 @CNNIndonesia Kalo kata partainya gini~ #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki https://t.co/RLCGuH0caR</t>
-  </si>
-  <si>
-    <t>@kafiradikalis Budayakan omon-omon untuk manipulasi~ #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligark</t>
-  </si>
-  <si>
-    <t>@barengwarga LAH HARUSNYA BISA DIBAYAR SAMA KORUPTOR YANG NGERUGIIN NEGARA SEBESAR 300TRILIYUN #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki</t>
-  </si>
-  <si>
-    <t>@barengwarga Memang biadab ini naik baru kemarin dah bayar buzzer ajaa #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax</t>
-  </si>
-  <si>
-    <t>trailer #Superman adalah pengalihan isu elit global dari masalah #PPN12Persen . f#ck lex luthor &amp;amp</t>
-  </si>
-  <si>
-    <t>Miskin harta gpp masih bisa dicari Yang penting ga miskin hati dan otak kayak BajjerRP tengik pantek oligarki #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki</t>
-  </si>
-  <si>
-    <t>Benarkah mie ayam 10 rb bakal jadi 12 rb? #PPN12Persen https://t.co/EXTY2kScph</t>
-  </si>
-  <si>
-    <t>@bayyy48 Gede badan doang! #PajakMencekik #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #TolakMulyaniTax #PPNMemperkuatOligarki</t>
-  </si>
-  <si>
-    <t>@nozelism Wkwkwk kerjaan pemerintah memang bangkeee buzzer kek tai @bengkeldodo @PartaiSocmed @ferrykoto #PPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #PajakMencekik</t>
-  </si>
-  <si>
-    <t>beban negara ditanggung rakyat miskin Indonesia #PPN12Persen rasa taik..</t>
-  </si>
-  <si>
-    <t>Kenaikan PPN 12% Pajak Naik Rakyat Menjerit Ekonomi Sulit Merangkak Naik Seharusnya yang Berhemat Pejabat ataukah Rakyat ????? #ppn12persen2025 #ppn #pajak #ppn12persen #tolak #tolakppn12persen #pajaknaik #rakyat #menjerit #tercekik #indonesia https://t.co/WPQb1NyRE9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sembari kita gagalkan #PPN12Persen #PajakMencekik biar tetep bisa nonton dg harga ngotak </t>
-  </si>
-  <si>
-    <t>Masih dipeluk setan Alergi peradaban Alergi kemajuan Mendorong kemunduran Pemimpin di esok hari (Adakah yang cukup mampu?) Mewakilkan suara kami (Jelas tak ada yang tahu!) #PPN12Persen https://t.co/EM8pvK7EoI</t>
-  </si>
-  <si>
-    <t>Hmm kenapa Skeletiano status WA terbarunya tentang Vietnam yah.... Anyway gw sakit hati tentang #PPN12Persen. Mak gw baru bayar listrik via m-banking @HaloBCA dan UANG ADMIN SEKARANG 17.000. Gw phm kalo bank harus ikut aturan Pemerintah tapi asli gw SAKIT HATI KE @KemenkeuRI https://t.co/AgVCcZF3Ip</t>
-  </si>
-  <si>
-    <t>PPN naik jd 12% sgt gk msk akal mrk ini analisisnya gimana sih. Studi jauh2 masih aja keputusan freak yg diambil. Apa gk liat jangka panjangnya? Kualifikasi kerja aja berpikir kritis &amp;amp</t>
-  </si>
-  <si>
-    <t>Kemarin rame lagi tentang PPN 12% nih Banyak asumsi yg keluar kl buku juga kena dampaknya emang bener buku juga kena PPN 12%? Yuk bahas! #PPN12Persen #Buku https://t.co/bwElJ2t4Kt</t>
-  </si>
-  <si>
-    <t>Beda dengan Indonesia Vietnam Turunkan PPN jadi 8 Persen dan Bikin Jumlah Kementerian Lebih Ramping https://t.co/oZFnKMygaQ lewat @tribunnews #indonesia #vietnam #ppn #pajak #kementerian #PPN12Persen</t>
-  </si>
-  <si>
-    <t>waktu ku kecil aku gak tau yang mungil mungil oh ternyata itu kita semua si rakyat kecil #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Diskon listrik 2bln bhn pokok naik seumur hidup bjirr jngn angap sepele bre 1% kalo org susah naiknya setara 9% apa naek #PPN12Persen https://t.co/F5lYGGQV4N</t>
-  </si>
-  <si>
-    <t>PPN: Pajak Pemiskinan Rakyat #PPNMemperkuatEkonomi #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Bayar pajak buat jadi warga negara yang baik eh uang pajaknya malah dipakai buat jalan-jalan para pejabat dengan embel-embel lagi perjalanan dinas. Kita yang kerja mereka yang wisata. Ironi banget ya? Ada lagi Ndak? #PajakMencekik #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Teruslah miskin teruslah bodoh. -Iksan Skuter #PPN12Persen #kandangmonyet #PajakMencekik</t>
-  </si>
-  <si>
-    <t>Yuk teken ini. #TolakPPN12Persen #TolakKenaikanPPN12Persen #PPN12Persen Semoga presiden kita ber-empati dgn kondisi rakyatnya. Amin. https://t.co/gKqCG2LMXn</t>
-  </si>
-  <si>
-    <t>PPN 12% untuk barang mewah adalah peluang membangun bangsa. Mari kawal kebijakan ini agar tepat sasaran. #PPN #PPN12Persen https://t.co/kHXVvm90BU</t>
-  </si>
-  <si>
-    <t>Saatnya kita kawal PPN 12% untuk memastikan dampaknya Positive bagi pembangunan dan masyarakat luas. #PPN #PPN12Persen https://t.co/9B0Lo4QxaI</t>
-  </si>
-  <si>
-    <t>Langkah ini dapat mendukung ekonomi berkelanjutan. Dukung kenaikan PPN 12% dengan memastikan pelaksanaannya adil. #PPN #PPN12Persen https://t.co/WenAXukSnJ</t>
-  </si>
-  <si>
-    <t>Kebijakan yang baik butuh dukungan dan pengawasan. Kawal PPN 12% untuk pemerataan dan kesejahteraan masyarakat. #PPN #PPN12Persen https://t.co/47xEbPnXwR</t>
-  </si>
-  <si>
-    <t>@IniSleman Duh Gustiiiii. Kalau itu saya saya benar2 bingung bgmn cara bagi2kan uang itu untuk pakaian anak istri sekolah anak kuliah anak bensin transport kontrakan belum urusan kmr mandi dan dapur. Dengan gampangnya Sri Mulyani malakin rakyat melalui pp</t>
-  </si>
-  <si>
-    <t>Warga Indonesia harusnya dinobatkan jadi salah satu warga negara yg paling prihatin bersyukur dan sabar di dunia. Kuat-kuat ya para pejuang rupiah pejuang keluarga dan pejuang-pejuang lainnya. ppn 12% ump #PPN12Persen https://t.co/4vLVcWmP9R</t>
-  </si>
-  <si>
-    <t>#TolakKenaikanPPN12Persen #TolakKenaikanPPN #PPN12Persen GAMAUU PPN12%% ANJJERRR https://t.co/5hJg1ggi79</t>
-  </si>
-  <si>
-    <t>@riseris_risriis Tolong mual jangan ngajak2 huhu jadi keinget #PPN12Persen Jadi gak mood hiks ÃƒÂ£Ã¢â€šÂ¬Ã‚Â½ÃƒÂ¯Ã‚Â¸Ã‚Â #PajakMencekik #TolakKenaikanPPN12Persen #TolakPPN12Persen aku masih pengen jajan! Tolong!</t>
-  </si>
-  <si>
-    <t>@zheely Aku juga pengeeen. Tapi begitu inget #PPN12Persen langsung mual Ze. #PajakMencekik #TolakPPN12Persen</t>
-  </si>
-  <si>
-    <t>Rakyat yang selama ini memberi makan para pejabat dan oligarki tetapi hak hak rakyat banyak dirampas #PPN12Persen https://t.co/ybkIYxV5Dc</t>
-  </si>
-  <si>
-    <t>ngurusi Negoro kok mesti nyusahno rakyate tapi selalu nguntungno gawe kelompoke dewe. Lha Rumongsomu iki Negoro e Mbahmu ta Cok Jancok?!! TOLAK KENAIKAN PPN 12% GATHEL ASU!! #TolakPPN12Persen #PPN12Persen https://t.co/w1nLyp50b6</t>
-  </si>
-  <si>
-    <t>Mulai 2025 Transaksi QRIS Akan Dikenakan PPN 12% #PPN12Persen #qris Baca selengkapnya di: https://t.co/hX5NPe6vsL</t>
-  </si>
-  <si>
-    <t>PPN 12 Persen Naikkan Harga Makanan Warga Parepare Kurangi Jajan dan Pilih Masak Sendiri https://t.co/Y9fMu1RSDW #PPN12Persen #News #BeritaBaru</t>
-  </si>
-  <si>
-    <t>Kenaikan PPN 12% sudah berlaku nih! Kalian tim santai aja atau tim langsung putar otak cari solusi? #katasosialmedia #tms #politik #info #ppn12persen https://t.co/zhdcTWopEe</t>
-  </si>
-  <si>
-    <t>Tolak ppn 12% negara maju yang gajinya gede 9% Indonesia gajinya 1-3jt uang dari mana untuk membayarnya? Rakyat kecil diperas dimana keadilan itu? #PPN12Persen #Gaksetuju</t>
-  </si>
-  <si>
-    <t>bergayalah sesuai dompet jangan terlalu Hedon demi sang Idola maya dia tau kamu ajaaa https://t.co/l8M6MScSWf #PPN #PPN12Persen #FourEverYouEP12</t>
-  </si>
-  <si>
-    <t>Maaf ya moots diriku sedang ikut meramaikan tagar menolak ppn12persen Kalau kureng nyaman mffh iah Enih demi tax jajan pergepengan ga naikÃƒÂ¯Ã‚Â¸Ã‚Â</t>
-  </si>
-  <si>
-    <t>#TolakPPN12Persen belanja barang mewah demi samaan sama IDOLA pls harusnya kena pajak ni orang https://t.co/rFjMeeIAwK #pajaknaik #PPN12Persen #TolakPPN12Persen</t>
-  </si>
-  <si>
-    <t>Mulai tahun depan kalau ppn naik 12% mungkin bisa melawan dgn cara: 1. Isi bensin di selain pertamina 2. Berusaha belanja di umkm yg ga ada ppn nya 3. maksimalin subsidi (pakai gas melon misal) 4. kurangin belanja 5. ada lagi (?) #TolakPPN12Persen #PPN12Persen #TolakPPN12</t>
-  </si>
-  <si>
-    <t>Sekarang dengan kenaikan PPN 12% apakah kita kembali ke jalan pemberontakan atau ada cara yang lebih bijak untuk menghadapinya? #PPN12Persen #PajakMencekik</t>
-  </si>
-  <si>
-    <t>dengan ppn 12% ini berasa numpang di negara ini #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen</t>
-  </si>
-  <si>
-    <t>Rakyat menolak kenaikan PPN jadi 12%! Aksi demo berlangsung di dekat Istana Negara sejak pukul 14.00 WIB. Apakah pemerintah mendengar? #PPN12Persen #SuaraRakyat #DemoPPN https://t.co/N1exLgr5sV</t>
-  </si>
-  <si>
-    <t>Sebaiknya FUFUFAFA memberikan susu ke El Gemoy biar bisa mikir! #PPN12Persen #TaxBillionaires #TolakKenaikanPPN https://t.co/QkUo5rjwgF</t>
-  </si>
-  <si>
-    <t>@zenrs @panditfootball #PPN12Persen bisa bunuh jersey lokal karena menurunkan permintaan jersey. Nonton bola &amp;amp</t>
-  </si>
-  <si>
-    <t>Ratusan warga sipil mahasiswa buruh hingga K-Popers melakukan aksi demonstrasi di depan Istana Negara Jakarta hari ini Kamis sore 19 Desember 2024. Mereka menolak Pajak Pertambahan Nilai (PPN) yang naik menjadi 12%. #demotolakppn12persen #ppn #ppn12persen #kpopers https://t.co/VpDNV0vM1k</t>
-  </si>
-  <si>
-    <t>@vrtualvaamp Please lah ngeributin hal begini tuh gaguna njir mending fokus tolak #PPN12Persen gasi ?</t>
-  </si>
-  <si>
-    <t>Transaksi Qris Ikut Terkena PPN 12% #gaji75 #PPN12Persen #Qriss #transaksi https://t.co/eQ42mkZ91g</t>
-  </si>
-  <si>
-    <t>Kalau potongan BPJS kesehatan/ketenagakejaan kita bisa rasa manfaatnya kalau pajak masih abu2 apalagi kalau PPN jadi naik 12% impact nya akan sangat terasa utk kelas menengah kebawah selamanya ngga rido saya akan tuntut di akhirat! #PPN12Persen #TolakKenaikanPPN12Persen</t>
-  </si>
-  <si>
-    <t>Simpan dan sebarluaskan! #PPN12Persen tai anjing https://t.co/j74PfzYz1X</t>
-  </si>
-  <si>
-    <t>Agama aja cuma minta 2 5% Bisa-bisanya negara maksa 12% Cih.. #PPN12Persen #TolakPPN12Persen</t>
-  </si>
-  <si>
-    <t>-A THREAD PPN Naik Jadi 12%! Jumat Miss K harga barang makin mahal pengeluaran makin besar! Siapkah kita menghadapi dampaknya? Yuk bijak mengatur keuangan dan tetap semangat mencari solusi! #PPN12Persen #EkonomiIndonesia #BelajarDanBertahan #titiknolengli</t>
-  </si>
-  <si>
-    <t>Golkar Sebut Kenaikan PPN Jadi 12 Persen hanya Menyasar Kalangan Atas #beritanasional #jumat #partaigolkar #PPN12Persen #PPN https://t.co/6xthWTMpgG</t>
-  </si>
-  <si>
-    <t>PPN 12% Mulai Diberlakukan Apa yang Menanti Ekonomi RI di 2025? https://t.co/YyEmbjhTSl #ppn12persen #tax #pajak #indonesia #ekonomi #ri #ekonom #presiden https://t.co/q8fXMP7ywT</t>
-  </si>
-  <si>
-    <t>Mulai Januari 2025 PPN naik jadi 12%. Untungnya kebutuhan pokok seperti beras ikan dan sayur nggak kena kecuali yang premium. Tapi syaratnya banyak dan beras premium masih belum jelas kena atau nggak. Simak detailnya di sini! #PPN12Persen #kompascom #ppn2025 #ppnnaik https://t.co/d9NJNvc9Si</t>
-  </si>
-  <si>
-    <t>Dan pilkada nggak asal milih. Ancur ini negara kalo dipimpin sama mafia semua #indonesiacemas2045 #PPN12Persen #kebohonganprabowo</t>
-  </si>
-  <si>
-    <t>Beras premium sebelumnya disebut masuk daftar barang yang dikenakan tarif PPN 12%. Namun Kepala Badan Pangan Nasional (Bapanas) Arief Prasetyo bilang beras premium tak kena PPN 12% tahun depan. &amp;gt</t>
-  </si>
-  <si>
-    <t>Baru bisa nafas dikit udah dicekik lagi sama PPN12Persen</t>
-  </si>
-  <si>
-    <t>Jenis Beras Kena PPN 12 Persen Dibeberkan Bapanas Salah Satunya Beras Organik https://t.co/W4cFfolsYC #Radarjabar #BrasKenaPajak #PPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #SriMulyani</t>
-  </si>
-  <si>
-    <t>Kena PPN Transaksi dengan Uang Elektronik Lebih Mahal Tahun Depan? Sumber : CNN INDONESIA Foto : CNN INDONESIA #ppn #perpajakan #pajakkitauntukkita #perpajakanindonesia #ppn12persen https://t.co/q1bhzln6wN</t>
-  </si>
-  <si>
-    <t>Pagiii negeri omon-omon Jika menjadi Kuli dianggap tidak Keren maka aku memilih untuk tidak Keren sebab tahun depan #PPN12Persen . . . . Semangat #JumatBerkah https://t.co/zeky5e3H4M</t>
-  </si>
-  <si>
-    <t>Pembayaran Qris Akan Dikenai Tarif PPN 12 Persen Netizen Lempar Kritikan Keras https://t.co/34uiUHb5nN #Radarjabar #PembayaranQris #PPN12Persen #TolakKenaikanPPN12Persen #TolakKenaikanPPN #TolakPPN12 #SriMulyani</t>
-  </si>
-  <si>
-    <t>ayo guys sebelum ppn naik 12% mending yang ada kebutuhan bisa langsung co sekarang lidt table mempermudah pekerjaan industrimu menjadi lebih efesien dan cepat. cek harga sekarang: https://t.co/kvMCm1BdbS hubungi kami: https://t.co/wssmneG4Q6 #PPN12Persen #PPNUntukInfrastruktur https://t.co/GW8RJkKITq</t>
-  </si>
-  <si>
-    <t>KALO NEGARA NYA KAYA JEPANG OR KOREA ITS OKAY PAJAK GEDE PEMERINTAH KERJA BENER GAJI MERATA LAH INI BEROBAT AJA MAHAL PELAYANAN GA BAGUS SEMBAKO DAN KEBUTUHAN POKOK MAHAL MAU LIBURAN MAHAL GAJI DIKIT ASTAGAAAA #TolakPPN12Persen #PPN12Persen</t>
-  </si>
-  <si>
-    <t>dikasih pilihan yg majakin orkay malah pada milih yg joget majakin rakyat kecil #PPN12Persen tulul keleann Ã¢â‚¬ÂÃ¯Â¸Â</t>
-  </si>
-  <si>
-    <t>udah susah cari uang ppn nya naik makin susah jadi rakyat menengah kebawah #TolakPPN12Persen #PPN12Persen https://t.co/ePgwFYPkmA</t>
-  </si>
-  <si>
-    <t>aku bakal terus berisik tentang PPN 12% yg jelek ini #TolakPPN12Persen #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Udah mah gaji di bawah umr nanti semua harga naik.. what a chill kill~ #TolakPPN12Persen #PPN12Persen https://t.co/P4yguV4kFY</t>
-  </si>
-  <si>
-    <t>Gue disini cuman mau menyampaikan pendapat gue tentang #PPN12Persen . Jadi gini masa sih negara kita yang katanya negara maju harus naik pajak? Wth! Segitunya banget nih pemerintah? Katanya mau masyarakat hidup bahagia kok pajaknya harus di naikin sih?</t>
-  </si>
-  <si>
-    <t>udah asam lambung naik Pajak ikut naik apa gk semaput #PPN12Persen #TolakKenaikanPPN12Persen https://t.co/Pbaba7lJkR</t>
-  </si>
-  <si>
-    <t>sedih jujur karna kebanyakan orang orang yang bersuara dan orang orang yang ikut demo tuh kebanyakan orang orang yang ga milih dia anjir #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Yang pro ama #PPN12Persen pasti bagian dari 58% dan kita tau bagaimana kaum itu hidup wkwk</t>
-  </si>
-  <si>
-    <t>KAYA IDUP UDAH SUSAH DITAMBAH #PPN12Persen NAJIS BANGET DAHHHHH INDONESIA GEDEIN DUIT DARI RAKYAT KECIL BUAT RAKYAT YANG HAUS KEKUASAAN #TolakKenaikanPPN12Persen</t>
-  </si>
-  <si>
-    <t>Dan pajak #PPN12Persen tetap naik tahun depan Ini baru permulaan woiiii Jahat banget sumpah!!!!!</t>
-  </si>
-  <si>
-    <t>ak akan menjadi aliansi belum bisa nonton konser tb2 pajak udh naik 12% MALAH MAKIN GABISA NONTON KONSER TAR GUEEEE KARNA HARGANY MAKIN MELANGIIITTT #TolakKenaikanPPN12Persen #TolakKenaikanPPN #PajakMencekik #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Alah siah bengkel mobil juga kenaa kamprett #TolakKenaikanPPN12Persen #TolakKenaikanPPN #PPN12Persen https://t.co/fG5Z0ksWn7</t>
-  </si>
-  <si>
-    <t>Dia emang harus di tangkap tapi ingat. satu persatu tumbalnya mulai di korbankan. Pengalihan PPN 12% mulai pakai korban2 besar nih. tetap kawal dia dan PPN. pemecahan fokus udah dimulai. #tolakppn12persen #PPN12Persen #parcokpembunuhrakyat</t>
-  </si>
-  <si>
-    <t>kameren pas pemilu ada yang nawarkan pendidikan gratis kalian gak mau malah milih yang makan gratis ini PPN naik 12% kok heboh kan betul kata pak gemuk itu klo PPN naik itu bukan keinginan pemerintahan tapi keinginan yang 58% itu kok malah heboh kocak #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Kalau Situ melihat pajak dari negara G20 kami rakyat berhak menuntut fasilitas yang sama kan?! #TolakPPN12Persen #PajakMencekik #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Kalau kenaikan ppn 12 persen ini bukan pemerintah. saya berharap kenaikan ini tidak terjadi di tahun depan. Meskipun bahan-bahan pokok diringankan tapi mata uang asik dollar semakin meninggi dan mata uang indo semakin kecil. #PPN12Persen #kenaikanppn12persen #TolakPPN12Persen https://t.co/kROzMTpPoL</t>
-  </si>
-  <si>
-    <t>https://t.co/uIk0exzYpj Badan Eksekutif Mahasiswa Seluruh Indonesia (BEM SI) mempertanyakan apakah kenaikan PPN itu untuk kesejahteraan rakyat atau hanya siasat mudah meraup pendapatan bagi negara? #PPN12Persen #PPN #Pajak #Ekonomi</t>
-  </si>
-  <si>
-    <t>lucu banget ini sumpah #PPN12Persen #PajakMencekik</t>
-  </si>
-  <si>
-    <t>Ni negara makin gila ya? Buat yang demo please stay safe yaa! #PPN12Persen #TolakPPN12Persen #TolakKenaikanPPN12Persen</t>
-  </si>
-  <si>
-    <t>Semangat Pagi! Yuk jangan lupa bayar pajaknya walaupun PPN naik jadi 12% yaa! #PPN12Persen #PajakMencekik #Trending https://t.co/ECLLTAMWJ8</t>
-  </si>
-  <si>
-    <t>Hari ini ayok kita fokusin lagi soal pajak buat temen-temen yg turun aksi stay safe yaaaa #TolakPPN12Persen #PPN12Persen #PajakMencekik</t>
-  </si>
-  <si>
-    <t>daripada naikin pajak mending benerin tuh cara ngambilnya yg freelance2 gini tuh kalau mau bayar bingung bgt istilahnya ribet ditanya juga gak jelas padahal udah niat mau bayar #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Kalo beneran kejadian PPN naik rakyat yg 42% cuma bisa melawan dengan mengurangi belanja apapun yang kena ppn atau menggantinya dengan beli barang seken. #PPN12Persen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para pejabat itu bilang sembako ga kena #PPN12Persen tetapi urusan distribusi dll kena #PPN12Persen ya semua akan naik bertubiÃ‚Â².....yg kembali lagi rakyat yg di cekik pejabat huraÃ‚Â²...lah kan kirik </t>
-  </si>
-  <si>
-    <t>Dasar pemerintah mau enknya doang #PajakMencekik #TolakKenaikanPPN12Persen #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Ketakutan saya cuma satu terkait #PPN12Persen ini.. tujuan utamanya bukan untuk membiayai program makan siang gratis tapi lebih karena devisa negara kita minus.. ya Allah semoga feeling saya salah.. #TolakPPN12Persen #TolakKenaikanPPN12Persen</t>
-  </si>
-  <si>
-    <t>negara bukan alat tukang palak! #TolakKenaikanPPN12Persen #TolakKenaikanPPN #PPN12Persen</t>
-  </si>
-  <si>
-    <t>Pajak naik terus dan negara masih gini gini aja gak maju. Trus duit pajaknya buat apaan?? #TolakKenaikanPPN12Persen #TolakPPN12Persen #PPN12Persen #TolakKenaikanPPN</t>
-  </si>
-  <si>
-    <t>PENJAHAT KELAS KAKAP tuh kebanyakan berasal dari golongan PEMERINTAH kasus d keluargaku jg tanah yg sdh d beli d thn 90an bsa double sertifikat OKNUMNYA PEJABAT DAERAH SANA - #TolakPPN12Persen #PPN12Persen</t>
-  </si>
-  <si>
-    <t>ARHGGGGGGGGG 3 JT AJA GW GAPUNYA BUAT NONTON BMTH APALAGI PAJAK NAIK SIAL #PPN12Persen #PajakMencekik #58sialan</t>
-  </si>
-  <si>
-    <t>kayaknya kalian yang duduk di kursi pemerintahan harus belajar dari raja asteroid 325 #PPN12Persen https://t.co/dwv5SkqhDr</t>
-  </si>
-  <si>
-    <t>Disini kan bilang beras premium kena ppn trs gw tanya chatgpt beras premium merk apa aja? Katanya ini gengs merk nya bener gak merknya ini semua gengs? Kalo iya berarti hampir semua merk dong #PPN12Persen https://t.co/Sf25qrlilw</t>
-  </si>
-  <si>
-    <t>Ada yg mudah nyari yg susah. Syahkan UU Perampasan Aset sita aset koruptor miskinkan koruptor. Lha koq milih naikin pajak disaat rakyat sekarat #PPN12Persen_Pemerasan https://t.co/jicEdT2Z9Z</t>
-  </si>
-  <si>
-    <t>PPN 12% mencekik rakyat. Stop memeras rakyat pemerintah Indonesia! #PPN12Persen #PPN1PersenNaik</t>
-  </si>
-  <si>
-    <t>PPN naik 1% banyak manfaat besar di baliknya! Dari pendidikan kesehatan hingga infrastruktur pajak kita balik lagi jadi solusi! Bareng-bareng kita bangun Indonesia yang lebih kuat! Ã°Å¸â€¡Â®Ã°Å¸â€¡Â© #PPN12Persen #BangunIndonesia #PajakUntukRakyat #EkonomiKuat #DukungPembangunan https://t.co/iuqApDLAyh</t>
   </si>
 </sst>
 </file>
@@ -2073,16 +1743,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7B9B4-4E98-42F0-AEE5-409E6381BD90}">
   <dimension ref="A1:B549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440:B549"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="A549" sqref="A440:B549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +1768,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +1776,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +1784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +1792,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +1800,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +1808,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +1816,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +1824,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +1832,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +1840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +1848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +1856,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +1864,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2202,7 +1872,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +1880,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2218,7 +1888,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +1896,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2234,7 +1904,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2242,7 +1912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +1920,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>438</v>
       </c>
@@ -2258,7 +1928,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2266,7 +1936,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2274,7 +1944,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2282,7 +1952,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2290,7 +1960,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +1968,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +1976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2314,7 +1984,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +1992,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2330,7 +2000,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2338,7 +2008,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2346,7 +2016,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2354,7 +2024,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2362,7 +2032,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2370,7 +2040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2378,7 +2048,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2386,7 +2056,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2064,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2072,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2080,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2418,7 +2088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2426,7 +2096,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2434,7 +2104,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +2112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2450,7 +2120,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2458,7 +2128,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2474,7 +2144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2482,7 +2152,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2490,7 +2160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2498,7 +2168,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2506,7 +2176,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2514,7 +2184,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2522,7 +2192,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2530,7 +2200,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2538,7 +2208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2546,7 +2216,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2224,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2562,7 +2232,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2570,7 +2240,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2578,7 +2248,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2586,7 +2256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2594,7 +2264,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2602,7 +2272,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +2280,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2618,7 +2288,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2626,7 +2296,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2634,7 +2304,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2642,7 +2312,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2650,7 +2320,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2658,7 +2328,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2336,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2674,7 +2344,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2682,7 +2352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -2690,7 +2360,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2698,7 +2368,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -2706,7 +2376,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2714,7 +2384,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2722,7 +2392,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -2730,7 +2400,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2738,7 +2408,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2746,7 +2416,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2754,7 +2424,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2762,7 +2432,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2770,7 +2440,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2778,7 +2448,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2786,7 +2456,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -2794,7 +2464,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2802,7 +2472,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -2810,7 +2480,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2488,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2826,7 +2496,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2504,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2842,7 +2512,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2520,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2858,7 +2528,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2866,7 +2536,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2874,7 +2544,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -2882,7 +2552,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2890,7 +2560,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2898,7 +2568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2906,7 +2576,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -2914,7 +2584,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2922,7 +2592,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -2930,7 +2600,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2938,7 +2608,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -2946,7 +2616,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2954,7 +2624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -2962,7 +2632,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2970,7 +2640,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -2978,7 +2648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -2986,7 +2656,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -2994,7 +2664,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3002,7 +2672,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -3010,7 +2680,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3018,7 +2688,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -3026,7 +2696,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3034,7 +2704,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3042,7 +2712,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3050,7 +2720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -3058,7 +2728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3066,7 +2736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3074,7 +2744,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3082,7 +2752,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -3090,7 +2760,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3098,7 +2768,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -3106,7 +2776,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3114,7 +2784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -3122,7 +2792,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3130,7 +2800,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -3138,7 +2808,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -3146,7 +2816,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -3154,7 +2824,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -3162,7 +2832,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -3170,7 +2840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3178,7 +2848,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -3186,7 +2856,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -3194,7 +2864,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -3202,7 +2872,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3210,7 +2880,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -3218,7 +2888,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -3226,7 +2896,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -3234,7 +2904,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -3242,7 +2912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -3250,7 +2920,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -3258,7 +2928,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -3266,7 +2936,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -3274,7 +2944,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -3282,7 +2952,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -3290,7 +2960,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -3298,7 +2968,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -3306,7 +2976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -3314,7 +2984,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -3322,7 +2992,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -3330,7 +3000,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -3338,7 +3008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3016,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -3354,7 +3024,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3032,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -3378,7 +3048,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -3386,7 +3056,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -3394,7 +3064,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -3402,7 +3072,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -3410,7 +3080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -3418,7 +3088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -3426,7 +3096,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -3434,7 +3104,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -3442,7 +3112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -3450,7 +3120,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -3458,7 +3128,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -3466,7 +3136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -3474,7 +3144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -3482,7 +3152,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -3490,7 +3160,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -3498,7 +3168,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -3506,7 +3176,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -3514,7 +3184,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -3522,7 +3192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -3530,7 +3200,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -3538,7 +3208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -3546,7 +3216,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -3554,7 +3224,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -3562,7 +3232,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -3570,7 +3240,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -3578,7 +3248,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -3586,7 +3256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -3594,7 +3264,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -3602,7 +3272,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -3610,7 +3280,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -3618,7 +3288,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -3626,7 +3296,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -3634,7 +3304,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -3642,7 +3312,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -3650,7 +3320,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -3658,7 +3328,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -3666,7 +3336,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -3674,7 +3344,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -3682,7 +3352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -3690,7 +3360,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -3698,7 +3368,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -3706,7 +3376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -3714,7 +3384,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -3722,7 +3392,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -3730,7 +3400,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -3738,7 +3408,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -3746,7 +3416,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -3754,7 +3424,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -3762,7 +3432,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -3770,7 +3440,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -3778,7 +3448,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -3786,7 +3456,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -3794,7 +3464,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -3802,7 +3472,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -3810,7 +3480,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -3818,7 +3488,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -3826,7 +3496,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -3834,7 +3504,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -3842,7 +3512,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -3850,7 +3520,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -3858,7 +3528,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -3866,7 +3536,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -3874,7 +3544,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -3882,7 +3552,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -3890,7 +3560,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -3898,7 +3568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -3906,7 +3576,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -3914,7 +3584,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -3922,7 +3592,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -3930,7 +3600,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -3938,7 +3608,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -3946,7 +3616,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -3954,7 +3624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -3962,7 +3632,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -3970,7 +3640,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -3978,7 +3648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -3986,7 +3656,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -3994,7 +3664,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -4002,7 +3672,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4010,7 +3680,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -4018,7 +3688,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4026,7 +3696,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -4034,7 +3704,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4042,7 +3712,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -4050,7 +3720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4058,7 +3728,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -4066,7 +3736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4074,7 +3744,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
@@ -4082,7 +3752,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4090,7 +3760,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -4098,7 +3768,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4106,7 +3776,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
@@ -4114,7 +3784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -4122,7 +3792,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
@@ -4130,7 +3800,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -4138,7 +3808,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
@@ -4146,7 +3816,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -4154,7 +3824,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
@@ -4162,7 +3832,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -4170,7 +3840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
@@ -4178,7 +3848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -4186,7 +3856,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
@@ -4194,7 +3864,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -4202,7 +3872,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -4210,7 +3880,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -4218,7 +3888,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -4226,7 +3896,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -4234,7 +3904,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
@@ -4242,7 +3912,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -4250,7 +3920,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
@@ -4258,7 +3928,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -4266,7 +3936,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
@@ -4274,7 +3944,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -4282,7 +3952,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
@@ -4290,7 +3960,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -4298,7 +3968,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
@@ -4306,7 +3976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -4314,7 +3984,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
@@ -4322,7 +3992,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -4330,7 +4000,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
@@ -4338,7 +4008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -4346,7 +4016,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
@@ -4354,7 +4024,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -4362,7 +4032,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
@@ -4370,7 +4040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -4378,7 +4048,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
@@ -4386,7 +4056,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -4394,7 +4064,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
@@ -4402,7 +4072,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -4410,7 +4080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -4418,7 +4088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -4426,7 +4096,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
@@ -4434,7 +4104,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -4442,7 +4112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
@@ -4450,7 +4120,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -4458,7 +4128,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
@@ -4466,7 +4136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -4474,7 +4144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
@@ -4482,7 +4152,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -4490,7 +4160,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
@@ -4498,7 +4168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -4506,7 +4176,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
@@ -4514,7 +4184,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -4522,7 +4192,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
@@ -4530,7 +4200,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -4538,7 +4208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
@@ -4546,7 +4216,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -4554,7 +4224,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
@@ -4562,7 +4232,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -4570,7 +4240,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
@@ -4578,7 +4248,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -4586,7 +4256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
@@ -4594,7 +4264,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -4602,7 +4272,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
@@ -4610,7 +4280,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -4618,7 +4288,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
@@ -4626,7 +4296,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -4634,7 +4304,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>440</v>
       </c>
@@ -4642,7 +4312,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>319</v>
       </c>
@@ -4650,7 +4320,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -4658,7 +4328,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>321</v>
       </c>
@@ -4666,7 +4336,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -4674,7 +4344,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>323</v>
       </c>
@@ -4682,7 +4352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -4690,7 +4360,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>325</v>
       </c>
@@ -4698,7 +4368,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -4706,7 +4376,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>327</v>
       </c>
@@ -4714,7 +4384,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>441</v>
       </c>
@@ -4722,7 +4392,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>328</v>
       </c>
@@ -4730,7 +4400,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>329</v>
       </c>
@@ -4738,7 +4408,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>330</v>
       </c>
@@ -4746,7 +4416,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>331</v>
       </c>
@@ -4754,7 +4424,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>332</v>
       </c>
@@ -4762,7 +4432,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>333</v>
       </c>
@@ -4770,7 +4440,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>334</v>
       </c>
@@ -4778,7 +4448,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>335</v>
       </c>
@@ -4786,7 +4456,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>336</v>
       </c>
@@ -4794,7 +4464,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>337</v>
       </c>
@@ -4802,7 +4472,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>338</v>
       </c>
@@ -4810,7 +4480,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>339</v>
       </c>
@@ -4818,7 +4488,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>340</v>
       </c>
@@ -4826,7 +4496,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>341</v>
       </c>
@@ -4834,7 +4504,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>342</v>
       </c>
@@ -4842,7 +4512,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>343</v>
       </c>
@@ -4850,7 +4520,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>344</v>
       </c>
@@ -4858,7 +4528,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>345</v>
       </c>
@@ -4866,7 +4536,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>346</v>
       </c>
@@ -4874,7 +4544,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>347</v>
       </c>
@@ -4882,7 +4552,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>348</v>
       </c>
@@ -4890,7 +4560,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>349</v>
       </c>
@@ -4898,7 +4568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>350</v>
       </c>
@@ -4906,7 +4576,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>351</v>
       </c>
@@ -4914,7 +4584,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>352</v>
       </c>
@@ -4922,7 +4592,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>353</v>
       </c>
@@ -4930,7 +4600,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>354</v>
       </c>
@@ -4938,7 +4608,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>355</v>
       </c>
@@ -4946,7 +4616,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>356</v>
       </c>
@@ -4954,7 +4624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>357</v>
       </c>
@@ -4962,7 +4632,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>358</v>
       </c>
@@ -4970,7 +4640,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>359</v>
       </c>
@@ -4978,7 +4648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>360</v>
       </c>
@@ -4986,7 +4656,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>361</v>
       </c>
@@ -4994,7 +4664,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>362</v>
       </c>
@@ -5002,7 +4672,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>363</v>
       </c>
@@ -5010,7 +4680,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>364</v>
       </c>
@@ -5018,7 +4688,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>365</v>
       </c>
@@ -5026,7 +4696,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>366</v>
       </c>
@@ -5034,7 +4704,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>367</v>
       </c>
@@ -5042,7 +4712,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>368</v>
       </c>
@@ -5050,7 +4720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>369</v>
       </c>
@@ -5058,7 +4728,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>370</v>
       </c>
@@ -5066,7 +4736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>371</v>
       </c>
@@ -5074,7 +4744,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>372</v>
       </c>
@@ -5082,7 +4752,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>373</v>
       </c>
@@ -5090,7 +4760,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>374</v>
       </c>
@@ -5098,7 +4768,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>375</v>
       </c>
@@ -5106,7 +4776,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>376</v>
       </c>
@@ -5114,7 +4784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>377</v>
       </c>
@@ -5122,7 +4792,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>378</v>
       </c>
@@ -5130,7 +4800,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>379</v>
       </c>
@@ -5138,7 +4808,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>380</v>
       </c>
@@ -5146,7 +4816,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>381</v>
       </c>
@@ -5154,7 +4824,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>382</v>
       </c>
@@ -5162,7 +4832,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>383</v>
       </c>
@@ -5170,7 +4840,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>384</v>
       </c>
@@ -5178,7 +4848,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>385</v>
       </c>
@@ -5186,7 +4856,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>386</v>
       </c>
@@ -5194,7 +4864,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>387</v>
       </c>
@@ -5202,7 +4872,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>388</v>
       </c>
@@ -5210,7 +4880,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>389</v>
       </c>
@@ -5218,7 +4888,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>390</v>
       </c>
@@ -5226,7 +4896,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>391</v>
       </c>
@@ -5234,7 +4904,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>392</v>
       </c>
@@ -5242,7 +4912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>393</v>
       </c>
@@ -5250,7 +4920,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>394</v>
       </c>
@@ -5258,7 +4928,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>395</v>
       </c>
@@ -5266,7 +4936,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>396</v>
       </c>
@@ -5274,7 +4944,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>397</v>
       </c>
@@ -5282,7 +4952,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>398</v>
       </c>
@@ -5290,7 +4960,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>399</v>
       </c>
@@ -5298,7 +4968,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>400</v>
       </c>
@@ -5306,7 +4976,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>401</v>
       </c>
@@ -5314,7 +4984,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>402</v>
       </c>
@@ -5322,7 +4992,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>403</v>
       </c>
@@ -5330,7 +5000,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>404</v>
       </c>
@@ -5338,7 +5008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>405</v>
       </c>
@@ -5346,7 +5016,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>406</v>
       </c>
@@ -5354,7 +5024,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>407</v>
       </c>
@@ -5362,7 +5032,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>408</v>
       </c>
@@ -5370,7 +5040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>409</v>
       </c>
@@ -5378,7 +5048,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>410</v>
       </c>
@@ -5386,7 +5056,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>411</v>
       </c>
@@ -5394,7 +5064,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>412</v>
       </c>
@@ -5402,7 +5072,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>413</v>
       </c>
@@ -5410,7 +5080,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>414</v>
       </c>
@@ -5418,7 +5088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>415</v>
       </c>
@@ -5426,7 +5096,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>416</v>
       </c>
@@ -5434,7 +5104,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>417</v>
       </c>
@@ -5442,7 +5112,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>418</v>
       </c>
@@ -5450,7 +5120,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>419</v>
       </c>
@@ -5458,7 +5128,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>420</v>
       </c>
@@ -5466,7 +5136,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>421</v>
       </c>
@@ -5474,7 +5144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>422</v>
       </c>
@@ -5482,7 +5152,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>423</v>
       </c>
@@ -5490,7 +5160,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>424</v>
       </c>
@@ -5498,7 +5168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>425</v>
       </c>
@@ -5506,7 +5176,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>426</v>
       </c>
@@ -5514,7 +5184,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>427</v>
       </c>
@@ -5522,7 +5192,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>428</v>
       </c>
@@ -5530,7 +5200,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>429</v>
       </c>
@@ -5538,7 +5208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>430</v>
       </c>
@@ -5546,7 +5216,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>431</v>
       </c>
@@ -5554,7 +5224,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>432</v>
       </c>
@@ -5562,7 +5232,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>433</v>
       </c>
@@ -5570,7 +5240,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>434</v>
       </c>
@@ -5578,7 +5248,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>435</v>
       </c>
@@ -5586,7 +5256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>436</v>
       </c>
@@ -5594,885 +5264,335 @@
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B440" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B441" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B442" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B443" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B444" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B445" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B446" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B447" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B448" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B449" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B450" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B451" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B452" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B453" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B454" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B455" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B456" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B457" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B458" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B459" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B460" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B461" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B462" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B463" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B464" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B465" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B466" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B467" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B468" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B469" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B470" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B471" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B472" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B473" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B474" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B475" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B476" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B477" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B478" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B479" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B480" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B481" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B482" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B483" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B484" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B485" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B486" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B487" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B488" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B489" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B490" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B491" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B492" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B493" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B494" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B495" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B496" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B497" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B498" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B499" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B500" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B501" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B502" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B503" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B504" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B505" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B506" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B507" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B508" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B509" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B510" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B511" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B512" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B513" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B514" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B515" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B516" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B517" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B518" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B519" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B520" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B521" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B522" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B523" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B524" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B525" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B526" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B527" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B528" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B529" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B530" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B531" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B532" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B533" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B534" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B535" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B536" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B537" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B538" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B539" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B540" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B541" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B542" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B543" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B544" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B545" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B546" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B547" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B548" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B549" t="s">
-        <v>437</v>
-      </c>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2"/>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2"/>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2"/>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="2"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="2"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="2"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="2"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="2"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="2"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="2"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="2"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="2"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="2"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="2"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="2"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="2"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="2"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="2"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="2"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="2"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="2"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" s="2"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" s="2"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" s="2"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" s="2"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" s="2"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" s="1"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="2"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" s="2"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" s="2"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="2"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" s="2"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" s="2"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" s="1"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" s="2"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" s="2"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" s="1"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" s="2"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="2"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="2"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="2"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="2"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="2"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="2"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="2"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="2"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="2"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="2"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="2"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="2"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="2"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="2"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="2"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="2"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="2"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="2"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data 80,20/data latih.xlsx
+++ b/Data 80,20/data latih.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\analys-sentimen-knn\Data 80,20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529430D-E2D5-4AE8-84B3-6BF88D2477ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBF7160-773E-4275-85C8-B9E245CCDDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE784BA3-685D-4D25-A9D8-B89D882A5E92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="441">
   <si>
     <t>tweet</t>
   </si>
@@ -565,9 +565,6 @@
   </si>
   <si>
     <t>PPN 12 Persen untuk Barang Mewah Bukti Prabowo Melindungi Kepentingan Rakyat Kecil #PPN12Persen via @jpnncom https://t.co/0WfGSwXoMZ</t>
-  </si>
-  <si>
-    <t>Hmmm ktny ppn g naek tp ini knpa mo ngisi saldo iklan shope kok jd 12% ? #PPN12Persen https://t.co/IsPKe5CrpP</t>
   </si>
   <si>
     <t>Terima kasih mahasiswa seluruh Indonesia yang sudah menyuarakan keresahan masyarakat #PPN12Persen</t>
@@ -1741,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7B9B4-4E98-42F0-AEE5-409E6381BD90}">
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A549" sqref="A440:B549"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1789,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1797,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1853,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1861,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1877,7 +1874,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1885,7 +1882,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,15 +1914,15 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1946,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1954,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1962,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2002,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2018,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2037,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2066,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2074,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2090,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2101,7 +2098,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,7 +2106,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2117,7 +2114,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2125,7 +2122,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2133,7 +2130,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2141,7 +2138,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2149,7 +2146,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2157,7 +2154,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2165,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2173,7 +2170,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2181,7 +2178,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2186,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2197,7 +2194,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2205,7 +2202,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2213,7 +2210,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2221,7 +2218,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2226,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +2242,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2253,7 +2250,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,7 +2258,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2269,7 +2266,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2277,7 +2274,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2285,7 +2282,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2293,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,7 +2298,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2309,7 +2306,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2317,7 +2314,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2325,7 +2322,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2333,7 +2330,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2341,7 +2338,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2349,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2357,7 +2354,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2365,7 +2362,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2373,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2381,7 +2378,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2389,7 +2386,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2394,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2402,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2418,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2426,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2434,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2445,7 +2442,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2450,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2458,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2466,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2474,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2490,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2498,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2506,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2517,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2525,7 +2522,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2533,7 +2530,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2541,7 +2538,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2549,7 +2546,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2554,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2565,7 +2562,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2573,7 +2570,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2581,7 +2578,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2589,7 +2586,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2597,7 +2594,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2605,7 +2602,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2613,7 +2610,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2621,7 +2618,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2629,7 +2626,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2637,7 +2634,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2645,7 +2642,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2653,7 +2650,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,7 +2658,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2669,7 +2666,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2677,7 +2674,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2685,7 +2682,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2693,7 +2690,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2701,7 +2698,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2709,7 +2706,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2717,7 +2714,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2725,7 +2722,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2733,7 +2730,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2741,7 +2738,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2749,7 +2746,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +2754,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +2762,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2773,7 +2770,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2781,7 +2778,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2789,7 +2786,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2805,7 +2802,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +2810,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,7 +2818,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2829,7 +2826,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,7 +2834,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2845,7 +2842,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +2850,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2861,7 +2858,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2869,7 +2866,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2877,7 +2874,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2885,7 +2882,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2893,7 +2890,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +2898,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2906,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +2914,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +2922,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +2930,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +2938,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,7 +2946,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2954,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2962,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2973,7 +2970,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +2978,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2989,7 +2986,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2997,7 +2994,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3005,7 +3002,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3010,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,7 +3018,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3026,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,7 +3034,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3045,7 +3042,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,7 +3050,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3061,7 +3058,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3069,7 +3066,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3077,7 +3074,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,7 +3082,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3093,7 +3090,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,7 +3098,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3109,7 +3106,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3117,7 +3114,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3125,7 +3122,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3133,7 +3130,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3141,7 +3138,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3149,7 +3146,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3157,7 +3154,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3165,7 +3162,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,2426 +3170,2418 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B256" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B258" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B288" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B293" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B294" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B295" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B296" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B297" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B299" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B300" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B301" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B302" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B303" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B305" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B306" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B307" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B308" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B309" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B310" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B311" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B312" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B313" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B318" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+      <c r="B319" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B319" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="B320" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B320" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B324" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B325" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+      <c r="B329" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B329" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="B330" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B348" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B439" t="s">
-        <v>439</v>
-      </c>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="1"/>
+      <c r="A440" s="2"/>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="2"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="1"/>
+      <c r="A442" s="2"/>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="2"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
+      <c r="A444" s="2"/>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="2"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="1"/>
+      <c r="A446" s="2"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="2"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="1"/>
+      <c r="A448" s="2"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="2"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1"/>
+      <c r="A450" s="2"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" s="2"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" s="1"/>
+      <c r="A452" s="2"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" s="2"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" s="1"/>
+      <c r="A454" s="2"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="2"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
+      <c r="A456" s="2"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="2"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" s="1"/>
+      <c r="A458" s="2"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" s="2"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
+      <c r="A460" s="2"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="2"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1"/>
+      <c r="A462" s="2"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" s="2"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" s="1"/>
+      <c r="A464" s="2"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="2"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="1"/>
+      <c r="A466" s="2"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" s="2"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" s="1"/>
+      <c r="A468" s="2"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" s="2"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" s="1"/>
+      <c r="A470" s="2"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" s="2"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" s="1"/>
+      <c r="A472" s="2"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="2"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" s="1"/>
+      <c r="A474" s="2"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" s="2"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" s="1"/>
+      <c r="A476" s="2"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" s="2"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" s="1"/>
+      <c r="A478" s="2"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" s="2"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" s="1"/>
+      <c r="A480" s="2"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" s="2"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" s="1"/>
+      <c r="A482" s="2"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" s="2"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" s="1"/>
+      <c r="A484" s="2"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" s="2"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" s="1"/>
+      <c r="A486" s="2"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" s="2"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" s="1"/>
+      <c r="A488" s="2"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" s="2"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" s="1"/>
+      <c r="A490" s="2"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" s="2"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" s="1"/>
+      <c r="A492" s="2"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" s="2"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" s="1"/>
+      <c r="A494" s="2"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" s="2"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" s="1"/>
+      <c r="A496" s="2"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" s="2"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" s="1"/>
+      <c r="A498" s="2"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" s="2"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" s="1"/>
+      <c r="A500" s="2"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" s="2"/>
+      <c r="A501" s="1"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" s="1"/>
+      <c r="A502" s="2"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" s="2"/>
+      <c r="A503" s="1"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504" s="1"/>
+      <c r="A504" s="2"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505" s="2"/>
+      <c r="A505" s="1"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" s="1"/>
+      <c r="A506" s="2"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" s="2"/>
+      <c r="A507" s="1"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" s="1"/>
+      <c r="A508" s="2"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509" s="2"/>
+      <c r="A509" s="1"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510" s="1"/>
+      <c r="A510" s="2"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511" s="2"/>
+      <c r="A511" s="1"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512" s="1"/>
+      <c r="A512" s="2"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513" s="2"/>
+      <c r="A513" s="1"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514" s="1"/>
+      <c r="A514" s="2"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515" s="2"/>
+      <c r="A515" s="1"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516" s="1"/>
+      <c r="A516" s="2"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517" s="2"/>
+      <c r="A517" s="1"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518" s="1"/>
+      <c r="A518" s="2"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519" s="2"/>
+      <c r="A519" s="1"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520" s="1"/>
+      <c r="A520" s="2"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521" s="2"/>
+      <c r="A521" s="1"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522" s="1"/>
+      <c r="A522" s="2"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523" s="2"/>
+      <c r="A523" s="1"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524" s="1"/>
+      <c r="A524" s="2"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525" s="2"/>
+      <c r="A525" s="1"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526" s="1"/>
+      <c r="A526" s="2"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527" s="2"/>
+      <c r="A527" s="1"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528" s="1"/>
+      <c r="A528" s="2"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529" s="2"/>
+      <c r="A529" s="1"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" s="1"/>
+      <c r="A530" s="2"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" s="2"/>
+      <c r="A531" s="1"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" s="1"/>
+      <c r="A532" s="2"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533" s="2"/>
+      <c r="A533" s="1"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534" s="1"/>
+      <c r="A534" s="2"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A535" s="2"/>
+      <c r="A535" s="1"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A536" s="1"/>
+      <c r="A536" s="2"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A537" s="2"/>
+      <c r="A537" s="1"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A538" s="1"/>
+      <c r="A538" s="2"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A539" s="2"/>
+      <c r="A539" s="1"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A540" s="1"/>
+      <c r="A540" s="2"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A541" s="2"/>
+      <c r="A541" s="1"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A542" s="1"/>
+      <c r="A542" s="2"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543" s="2"/>
+      <c r="A543" s="1"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544" s="1"/>
+      <c r="A544" s="2"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545" s="2"/>
+      <c r="A545" s="1"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A546" s="1"/>
+      <c r="A546" s="2"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A547" s="2"/>
+      <c r="A547" s="1"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A549" s="2"/>
+      <c r="A548" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
